--- a/pred_ohlcv/54_21/2020-01-15 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 FCT ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>1602571.5721</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1593794.6448</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1563723.3702</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>591523.2489159311</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>320638.6348159311</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>308149.6401159311</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>318020.4021159311</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>318020.4021159311</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>299807.9827159311</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>277605.3915159311</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>277605.3915159311</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>272999.8858159311</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>265176.5588159311</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>261336.9808159311</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>258821.2353159311</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>258821.2353159311</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>534017.3935159311</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>508148.7869159311</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>512013.3652159311</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>575477.186715931</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>584503.317415931</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>596091.852315931</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>596091.852315931</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>626989.3328159309</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>625846.1081159309</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>626893.978215931</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>663784.2348159309</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>663784.2348159309</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>666767.656815931</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>667625.519515931</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>617159.978915931</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>636530.668515931</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>636530.668515931</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>637268.201815931</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>613007.0031159311</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>249578.8772100087</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>251253.7902100087</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>251253.7902100087</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>301238.1926100088</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>301178.1926100088</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>301178.1926100088</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>301313.4739100087</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>301313.4739100087</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>286915.5903100087</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>846777.4501094075</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>848369.8682094075</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>848310.9233094075</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>848310.9233094075</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>849620.4440094075</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>824273.1514094075</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>828017.1514094075</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>828017.1514094075</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>827442.2905094075</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>827507.2905094075</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>827213.6250094075</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>807038.0239094076</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>806935.6701094075</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>726311.5502094075</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1163112.300490593</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1163112.300490593</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>61027.70010940731</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>59456.57420940731</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>59707.57420940731</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>31707.57420940731</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>31722.57420940731</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>41753.57420940731</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>32865.78480940731</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>32839.46760940731</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>4542.371509407309</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>5957.371509407309</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1104.577909407309</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>239.1480094073086</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1718.870309407309</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1735.393709407309</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>2208.393709407309</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>108131.6237094073</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>208131.6237094073</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>222833.6237094073</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>13078640.13187458</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>11044227.94167458</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>11046326.68837458</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>11035911.62739897</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>10981617.9417047</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>11129910.5712047</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>11100694.7633047</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>11115089.3029047</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>11128428.1533047</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>11142346.0147047</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>11109515.65100854</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>11109515.65100854</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>11141286.87120854</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>11141286.87120854</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>11141295.87120854</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>11140657.04755634</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>11091547.13615634</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>11091547.13615634</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>11102299.91345634</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>11099340.50175635</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>11101463.38675635</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>11101463.38675635</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>11101417.40905635</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>11101417.40905635</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>11099010.96685635</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>11059625.01805635</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>10967432.90345635</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>10946382.40175634</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>10964556.05325634</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>10963708.65845634</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>12668800.00122071</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>12664809.06672071</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>12639659.47762072</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>12617196.25152072</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 FCT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>1527577.289</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1580655.4393</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1602717.6741</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1602579.4849</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1602627.4849</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1602571.5721</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>1602553.1723</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>1593794.6448</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>1593794.6448</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1563723.3702</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1503609.6206</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1493970.9723</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>1494066.1167</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>1494066.1167</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>1478859.6481</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>1479779.279624473</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>1483072.437815931</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1483072.437815931</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1483015.164015931</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>1456126.870715931</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>834494.5195159311</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>823005.7101159311</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>823005.7101159311</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>857614.6226159311</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>857614.6226159311</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>857624.6226159311</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>840957.6455159311</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>833267.3182159311</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>784013.0401159311</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>784818.8942159311</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>784818.8942159311</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>785318.8942159311</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>717638.145815931</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>717638.145815931</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>717638.145815931</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>716345.5843159311</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>707671.6331159311</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>707671.6331159311</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>707671.6331159311</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>707671.6331159311</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>707671.6331159311</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>637496.612915931</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>637496.612915931</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>637496.612915931</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>635205.7518159311</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>632646.1570159311</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>532646.1570159311</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>532646.1570159311</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>531956.0880159311</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>320638.6348159311</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>308149.6401159311</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>318020.4021159311</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>318020.4021159311</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>299807.9827159311</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>277605.3915159311</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>277605.3915159311</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>272999.8858159311</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>265176.5588159311</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>261336.9808159311</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>258821.2353159311</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>258821.2353159311</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>235898.9149159311</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>235898.9149159311</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>235898.9149159311</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>288954.6212159311</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>311124.6212159311</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>534017.3935159311</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>508148.7869159311</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>512013.3652159311</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>575477.186715931</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>584503.317415931</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>596091.852315931</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>596091.852315931</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>626989.3328159309</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>625846.1081159309</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>626893.978215931</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>663784.2348159309</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>663784.2348159309</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>666767.656815931</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>667625.519515931</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>676461.603215931</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>674325.769615931</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>617159.978915931</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>636530.668515931</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>636530.668515931</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>637268.201815931</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>613007.0031159311</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>518850.6077159311</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>455015.7642159311</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>454714.6493159311</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>454412.6027159311</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>454412.6027159311</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>454444.2522159311</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>396505.4246159311</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>396444.131315931</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>396444.131315931</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>396444.131315931</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>368213.9564846427</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>337771.8576813288</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>360838.3727467266</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>370811.4055966501</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>370811.4055966501</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>370811.4055966501</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>370811.4055966501</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>372788.3716467266</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>372788.3716467266</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>372788.3716467266</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>382856.1682467266</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>393256.1682467266</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>373255.4697467266</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>373287.3126467266</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>363287.3126467266</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>353287.3126467266</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>353287.3126467266</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>315548.6075100087</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>249578.8772100087</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>251253.7902100087</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>251253.7902100087</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>301238.1926100088</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>301178.1926100088</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>301178.1926100088</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>301313.4739100087</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>301313.4739100087</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>301313.4739100087</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>285313.4739100087</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>285313.4739100087</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>286915.5903100087</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>286915.5903100087</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>286915.5903100087</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>286915.5903100087</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>849620.4440094075</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>824273.1514094075</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>828017.1514094075</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>828017.1514094075</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>827442.2905094075</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>827507.2905094075</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>827213.6250094075</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>807038.0239094076</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>806935.6701094075</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>726311.5502094075</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1163112.300490593</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-1163112.300490593</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>61027.70010940731</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>59456.57420940731</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>59707.57420940731</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>31707.57420940731</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>31722.57420940731</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>41753.57420940731</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>32865.78480940731</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>32839.46760940731</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>4542.371509407309</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>5957.371509407309</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1104.577909407309</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>239.1480094073086</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1718.870309407309</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1735.393709407309</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>2208.393709407309</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>108131.6237094073</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>208131.6237094073</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>222833.6237094073</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>418704.3789863127</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>13078640.13187458</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>11044227.94167458</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>11046326.68837458</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>11035911.62739897</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>10981617.9417047</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>11129910.5712047</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>11100694.7633047</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>11128428.1533047</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>11142346.0147047</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>11109515.65100854</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>11109515.65100854</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>11141286.87120854</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>11141286.87120854</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>11141295.87120854</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>11140657.04755634</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>11091547.13615634</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>11091547.13615634</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>11102299.91345634</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>11099340.50175635</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>11101463.38675635</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>11101463.38675635</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>11101417.40905635</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>11101417.40905635</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>11099010.96685635</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>11059625.01805635</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>10967432.90345635</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>10946382.40175634</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>10964556.05325634</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>10963708.65845634</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>12668800.00122071</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>12664809.06672071</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>12639659.47762072</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>12617196.25152072</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
